--- a/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC009C48-AD5B-4097-A6DB-60BC6026F7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2458B05D-7D66-46C7-A688-6223652828F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BE8FBB17-04B3-4FB1-AA79-244D52CC8CA7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54C7895E-7B6A-4F34-8E23-0D10BCA0C503}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -86,325 +86,325 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>5,14%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
     <t>65 y más</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,54%</t>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
     <t>0,92%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>98,26%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
   </si>
   <si>
     <t>99,08%</t>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD3FD5A-A668-4D38-B890-D993FD8D3A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE678A1D-E9D2-4105-AC25-76E70AC5B5EF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1137,7 +1137,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1152,13 +1152,13 @@
         <v>421052</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>455</v>
@@ -1167,13 +1167,13 @@
         <v>491129</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -1182,13 +1182,13 @@
         <v>912182</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>11398</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1271,13 +1271,13 @@
         <v>4882</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1286,13 +1286,13 @@
         <v>16280</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1307,10 +1307,10 @@
         <v>545694</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -1414,10 +1414,10 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1426,13 +1426,13 @@
         <v>6460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1441,13 +1441,13 @@
         <v>9879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,13 +1462,13 @@
         <v>714874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>1128</v>
@@ -1477,13 +1477,13 @@
         <v>739361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1785</v>
@@ -1492,13 +1492,13 @@
         <v>1454235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1566,13 +1566,13 @@
         <v>7361</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1581,13 +1581,13 @@
         <v>1741</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1596,13 +1596,13 @@
         <v>9103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1617,13 @@
         <v>590717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>996</v>
@@ -1632,13 +1632,13 @@
         <v>593229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1650</v>
@@ -1647,13 +1647,13 @@
         <v>1183944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1721,13 +1721,13 @@
         <v>907</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1736,13 +1736,13 @@
         <v>1731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1751,13 +1751,13 @@
         <v>2638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
         <v>696142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -1787,13 +1787,13 @@
         <v>1023684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>2729</v>
@@ -1802,13 +1802,13 @@
         <v>1719826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1876,13 @@
         <v>39382</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -1891,13 +1891,13 @@
         <v>26722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -1906,13 +1906,13 @@
         <v>66103</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,16 +1924,16 @@
         <v>3336</v>
       </c>
       <c r="D23" s="7">
-        <v>3335829</v>
+        <v>3335828</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>5323</v>
@@ -1942,13 +1942,13 @@
         <v>3774089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>8659</v>
@@ -1960,10 +1960,10 @@
         <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1975,7 @@
         <v>3366</v>
       </c>
       <c r="D24" s="7">
-        <v>3375211</v>
+        <v>3375210</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2458B05D-7D66-46C7-A688-6223652828F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4C3BAC-37AD-4754-A9F5-3EC1CA6921AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54C7895E-7B6A-4F34-8E23-0D10BCA0C503}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B49BC7E5-C236-45D0-BCB1-BD7C293D9D02}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE678A1D-E9D2-4105-AC25-76E70AC5B5EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6718271C-96D6-43FA-9EEC-913BC9B90A6B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4C3BAC-37AD-4754-A9F5-3EC1CA6921AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2817A244-C61E-48C2-A7B4-C1DA70D47C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B49BC7E5-C236-45D0-BCB1-BD7C293D9D02}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DFBBDD7-2334-4528-9508-76F212E2259E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>1,26%</t>
@@ -86,325 +86,325 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>5,09%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>99,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
   </si>
   <si>
     <t>99,08%</t>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6718271C-96D6-43FA-9EEC-913BC9B90A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4415FFE6-E61D-4C02-BBC2-57B20FE0C97B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1137,7 +1137,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1152,13 +1152,13 @@
         <v>421052</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>455</v>
@@ -1167,13 +1167,13 @@
         <v>491129</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>752</v>
@@ -1182,13 +1182,13 @@
         <v>912182</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1256,13 +1256,13 @@
         <v>11398</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -1271,13 +1271,13 @@
         <v>4882</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1286,13 +1286,13 @@
         <v>16280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1307,10 +1307,10 @@
         <v>545694</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>60</v>
@@ -1414,10 +1414,10 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -1426,13 +1426,13 @@
         <v>6460</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -1441,13 +1441,13 @@
         <v>9879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1462,13 +1462,13 @@
         <v>714874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>1128</v>
@@ -1477,13 +1477,13 @@
         <v>739361</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1785</v>
@@ -1492,13 +1492,13 @@
         <v>1454235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1566,13 +1566,13 @@
         <v>7361</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1581,13 +1581,13 @@
         <v>1741</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -1596,13 +1596,13 @@
         <v>9103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,13 +1617,13 @@
         <v>590717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>996</v>
@@ -1632,13 +1632,13 @@
         <v>593229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M17" s="7">
         <v>1650</v>
@@ -1647,13 +1647,13 @@
         <v>1183944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1721,13 +1721,13 @@
         <v>907</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -1736,13 +1736,13 @@
         <v>1731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -1751,13 +1751,13 @@
         <v>2638</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,10 +1772,10 @@
         <v>696142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
@@ -1787,13 +1787,13 @@
         <v>1023684</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>2729</v>
@@ -1802,13 +1802,13 @@
         <v>1719826</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1876,13 @@
         <v>39382</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -1891,13 +1891,13 @@
         <v>26722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -1906,13 +1906,13 @@
         <v>66103</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,16 +1924,16 @@
         <v>3336</v>
       </c>
       <c r="D23" s="7">
-        <v>3335828</v>
+        <v>3335829</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>5323</v>
@@ -1942,13 +1942,13 @@
         <v>3774089</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>8659</v>
@@ -1960,10 +1960,10 @@
         <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1975,7 @@
         <v>3366</v>
       </c>
       <c r="D24" s="7">
-        <v>3375210</v>
+        <v>3375211</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2817A244-C61E-48C2-A7B4-C1DA70D47C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B03159B1-7C9A-4D1E-8BA4-2F9BB8B50A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3DFBBDD7-2334-4528-9508-76F212E2259E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{03701CB2-52AA-40B7-9832-303120730B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="137">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -65,349 +65,385 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>98,6%</t>
   </si>
   <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -822,8 +858,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4415FFE6-E61D-4C02-BBC2-57B20FE0C97B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9626689-F742-4794-9BB8-9C7BD017D419}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>10328</v>
+        <v>10458</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>4460</v>
+        <v>4020</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>14788</v>
+        <v>14478</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,7 +1030,7 @@
         <v>167</v>
       </c>
       <c r="D5" s="7">
-        <v>367351</v>
+        <v>389529</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,7 +1045,7 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>350497</v>
+        <v>309180</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,7 +1060,7 @@
         <v>372</v>
       </c>
       <c r="N5" s="7">
-        <v>717848</v>
+        <v>698709</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,7 +1081,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,7 +1096,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,7 +1111,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>5968</v>
+        <v>5527</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>7448</v>
+        <v>6189</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,7 +1164,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>13416</v>
+        <v>11716</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,7 +1185,7 @@
         <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>421052</v>
+        <v>416826</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,7 +1200,7 @@
         <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>491129</v>
+        <v>505315</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,7 +1215,7 @@
         <v>752</v>
       </c>
       <c r="N8" s="7">
-        <v>912182</v>
+        <v>922141</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,7 +1236,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>427020</v>
+        <v>422353</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,7 +1251,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,7 +1266,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925598</v>
+        <v>933857</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>11398</v>
+        <v>10707</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,34 +1298,34 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>4882</v>
+        <v>4382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>16280</v>
+        <v>15088</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1304,46 +1340,46 @@
         <v>535</v>
       </c>
       <c r="D11" s="7">
-        <v>545694</v>
+        <v>525467</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>836</v>
       </c>
       <c r="I11" s="7">
-        <v>576189</v>
+        <v>535841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1371</v>
       </c>
       <c r="N11" s="7">
-        <v>1121883</v>
+        <v>1061308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,7 +1391,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>557092</v>
+        <v>536174</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,7 +1406,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>581071</v>
+        <v>540223</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,7 +1421,7 @@
         <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>1138163</v>
+        <v>1076396</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,46 +1444,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3419</v>
+        <v>3230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>6460</v>
+        <v>5965</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>9879</v>
+        <v>9195</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1495,13 @@
         <v>657</v>
       </c>
       <c r="D14" s="7">
-        <v>714874</v>
+        <v>879004</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -1474,31 +1510,31 @@
         <v>1128</v>
       </c>
       <c r="I14" s="7">
-        <v>739361</v>
+        <v>705572</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1785</v>
       </c>
       <c r="N14" s="7">
-        <v>1454235</v>
+        <v>1584576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,7 +1546,7 @@
         <v>660</v>
       </c>
       <c r="D15" s="7">
-        <v>718293</v>
+        <v>882234</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,7 +1561,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>745821</v>
+        <v>711537</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,7 +1576,7 @@
         <v>1799</v>
       </c>
       <c r="N15" s="7">
-        <v>1464114</v>
+        <v>1593771</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1554,7 +1590,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,46 +1599,46 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>7361</v>
+        <v>6626</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1741</v>
+        <v>1661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
       </c>
       <c r="N16" s="7">
-        <v>9103</v>
+        <v>8287</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,46 +1650,46 @@
         <v>654</v>
       </c>
       <c r="D17" s="7">
-        <v>590717</v>
+        <v>552620</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>996</v>
       </c>
       <c r="I17" s="7">
-        <v>593229</v>
+        <v>544323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>1650</v>
       </c>
       <c r="N17" s="7">
-        <v>1183944</v>
+        <v>1096944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,7 +1701,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598078</v>
+        <v>559246</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,7 +1716,7 @@
         <v>999</v>
       </c>
       <c r="I18" s="7">
-        <v>594970</v>
+        <v>545984</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,7 +1731,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1193047</v>
+        <v>1105231</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1709,7 +1745,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1718,46 +1754,46 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>907</v>
+        <v>864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1146</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="7">
         <v>3</v>
       </c>
-      <c r="I19" s="7">
-        <v>1731</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
       <c r="N19" s="7">
-        <v>2638</v>
+        <v>2010</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,49 +1802,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>1026</v>
+        <v>568</v>
       </c>
       <c r="D20" s="7">
-        <v>696142</v>
+        <v>366681</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="7">
-        <v>1703</v>
+        <v>824</v>
       </c>
       <c r="I20" s="7">
-        <v>1023684</v>
+        <v>606643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1392</v>
+      </c>
+      <c r="N20" s="7">
+        <v>973324</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="7">
-        <v>2729</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1719826</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,10 +1853,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>697049</v>
+        <v>367545</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1832,10 +1868,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025415</v>
+        <v>607789</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1847,10 +1883,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2733</v>
+        <v>1395</v>
       </c>
       <c r="N21" s="7">
-        <v>1722464</v>
+        <v>975334</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1864,55 +1900,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>39382</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>26722</v>
+        <v>377</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>377</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="7">
-        <v>61</v>
-      </c>
-      <c r="N22" s="7">
-        <v>66103</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,49 +1957,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3336</v>
+        <v>458</v>
       </c>
       <c r="D23" s="7">
-        <v>3335829</v>
+        <v>282759</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="7">
+        <v>879</v>
+      </c>
+      <c r="I23" s="7">
+        <v>424896</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N23" s="7">
+        <v>707655</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5323</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3774089</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8659</v>
-      </c>
-      <c r="N23" s="7">
-        <v>7109919</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,63 +2008,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425273</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708032</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>37411</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" s="7">
+        <v>31</v>
+      </c>
+      <c r="I25" s="7">
+        <v>23740</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M25" s="7">
+        <v>61</v>
+      </c>
+      <c r="N25" s="7">
+        <v>61151</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3336</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3412888</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5323</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3631770</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8659</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7044657</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3366</v>
       </c>
-      <c r="D24" s="7">
-        <v>3375211</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3450299</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5354</v>
       </c>
-      <c r="I24" s="7">
-        <v>3800811</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655510</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8720</v>
       </c>
-      <c r="N24" s="7">
-        <v>7176022</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>124</v>
+      <c r="N27" s="7">
+        <v>7105808</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
